--- a/English-12x_tenses+Adverbs.xlsx
+++ b/English-12x_tenses+Adverbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="12345" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="12345" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Speak" sheetId="1" r:id="rId1"/>
@@ -2568,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3447,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
